--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
@@ -145,13 +145,70 @@
   </si>
   <si>
     <t>Short explenation:</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Definitieve versie nodig</t>
+  </si>
+  <si>
+    <t>Definition of Done:</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Approved by whole team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Passed all tests.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +224,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -363,6 +433,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +744,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" t="s">
@@ -750,7 +826,9 @@
       <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -769,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
@@ -789,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -804,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -819,9 +897,12 @@
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="10"/>
+      <c r="G10" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -834,9 +915,12 @@
         <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="10"/>
+      <c r="G11" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -849,9 +933,12 @@
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="10"/>
+      <c r="G12" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -864,7 +951,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -879,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>26</v>
@@ -896,7 +983,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -911,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -926,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -1167,6 +1254,7 @@
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
